--- a/josh-qual-sort.xlsx
+++ b/josh-qual-sort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuarosenberg/Google Drive/1_Research/dissertation/rosenberg-diss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{897D0EC0-CBDD-7448-82C5-56FD983D5D62}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D229F91D-7951-D744-8F62-AD96B197B825}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
@@ -2789,11 +2789,11 @@
   <dimension ref="A1:Q251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="M51" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/josh-qual-sort.xlsx
+++ b/josh-qual-sort.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuarosenberg/Google Drive/1_Research/dissertation/rosenberg-diss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D229F91D-7951-D744-8F62-AD96B197B825}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6FB07-7857-204C-A2B7-FD899F956144}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d-proc" sheetId="1" r:id="rId1"/>
@@ -1946,7 +1946,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2785,15 +2785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="M51" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3714,7 +3710,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5956,7 +5952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -6000,7 +5996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -6044,7 +6040,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -6088,7 +6084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -6132,7 +6128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -6176,7 +6172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
@@ -6220,7 +6216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -6264,7 +6260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -6308,7 +6304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -6352,7 +6348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
@@ -6401,7 +6397,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
@@ -6445,7 +6441,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -6489,7 +6485,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2</v>
       </c>
@@ -6533,7 +6529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -6577,7 +6573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
@@ -6621,7 +6617,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2</v>
       </c>
@@ -6665,7 +6661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2</v>
       </c>
@@ -6764,7 +6760,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -6808,7 +6804,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4</v>
       </c>
@@ -6856,7 +6852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4</v>
       </c>
@@ -6903,7 +6899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4</v>
       </c>
@@ -7005,7 +7001,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4</v>
       </c>
@@ -7049,7 +7045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -7144,7 +7140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -7188,7 +7184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -7331,7 +7327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4</v>
       </c>
@@ -7375,7 +7371,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4</v>
       </c>
@@ -7507,7 +7503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4</v>
       </c>
@@ -7551,7 +7547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4</v>
       </c>
@@ -7595,7 +7591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4</v>
       </c>
@@ -7639,7 +7635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4</v>
       </c>
@@ -7683,7 +7679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4</v>
       </c>
@@ -7783,7 +7779,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4</v>
       </c>
@@ -7827,7 +7823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4</v>
       </c>
@@ -7871,7 +7867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4</v>
       </c>
@@ -7915,7 +7911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4</v>
       </c>
@@ -7959,7 +7955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4</v>
       </c>
@@ -8003,7 +7999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4</v>
       </c>
@@ -8099,7 +8095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4</v>
       </c>
@@ -8190,7 +8186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4</v>
       </c>
@@ -8234,7 +8230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4</v>
       </c>
@@ -8282,7 +8278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4</v>
       </c>
@@ -8326,7 +8322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4</v>
       </c>
@@ -8370,7 +8366,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4</v>
       </c>
@@ -8512,7 +8508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4</v>
       </c>
@@ -8558,7 +8554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4</v>
       </c>
@@ -8602,7 +8598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4</v>
       </c>
@@ -8742,7 +8738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4</v>
       </c>
@@ -8833,7 +8829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4</v>
       </c>
@@ -8877,7 +8873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5</v>
       </c>
@@ -8921,7 +8917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>5</v>
       </c>
@@ -8965,7 +8961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>5</v>
       </c>
@@ -9009,7 +9005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>5</v>
       </c>
@@ -9053,7 +9049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5</v>
       </c>
@@ -9239,7 +9235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>5</v>
       </c>
@@ -9327,7 +9323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="272" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>5</v>
       </c>
@@ -9374,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="160" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="224" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>5</v>
       </c>
@@ -9423,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="192" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>5</v>
       </c>
@@ -9514,7 +9510,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>5</v>
       </c>
@@ -9558,7 +9554,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>5</v>
       </c>
@@ -9602,7 +9598,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>5</v>
       </c>
@@ -9646,7 +9642,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>5</v>
       </c>
@@ -9690,7 +9686,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>5</v>
       </c>
@@ -9790,7 +9786,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>5</v>
       </c>
@@ -9839,7 +9835,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>5</v>
       </c>
@@ -9886,7 +9882,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>5</v>
       </c>
@@ -9930,7 +9926,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>5</v>
       </c>
@@ -10064,7 +10060,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>10</v>
       </c>
@@ -10108,7 +10104,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>10</v>
       </c>
@@ -10152,7 +10148,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>10</v>
       </c>
@@ -10196,7 +10192,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>10</v>
       </c>
@@ -10240,7 +10236,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>10</v>
       </c>
@@ -10284,7 +10280,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>10</v>
       </c>
@@ -10328,7 +10324,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>10</v>
       </c>
@@ -10372,7 +10368,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>10</v>
       </c>
@@ -10461,7 +10457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>10</v>
       </c>
@@ -10505,7 +10501,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>10</v>
       </c>
@@ -10549,7 +10545,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>10</v>
       </c>
@@ -10638,7 +10634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>10</v>
       </c>
@@ -10682,7 +10678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>10</v>
       </c>
@@ -10726,7 +10722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>10</v>
       </c>
@@ -10770,7 +10766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>10</v>
       </c>
@@ -10814,7 +10810,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10</v>
       </c>
@@ -10858,7 +10854,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>10</v>
       </c>
@@ -10947,7 +10943,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>6</v>
       </c>
@@ -10991,7 +10987,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>6</v>
       </c>
@@ -11035,7 +11031,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>6</v>
       </c>
@@ -11079,7 +11075,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>6</v>
       </c>
@@ -11123,7 +11119,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>6</v>
       </c>
@@ -11211,7 +11207,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>6</v>
       </c>
@@ -11255,7 +11251,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>6</v>
       </c>
@@ -11348,7 +11344,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>6</v>
       </c>
@@ -11398,7 +11394,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>6</v>
       </c>
@@ -11487,7 +11483,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>6</v>
       </c>
@@ -11575,7 +11571,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>6</v>
       </c>
@@ -11619,7 +11615,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>6</v>
       </c>
@@ -11668,7 +11664,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>6</v>
       </c>
@@ -11712,7 +11708,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>6</v>
       </c>
@@ -11759,7 +11755,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>6</v>
       </c>
@@ -11806,7 +11802,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>8</v>
       </c>
@@ -11853,7 +11849,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>8</v>
       </c>
@@ -11901,7 +11897,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>8</v>
       </c>
@@ -11945,7 +11941,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>8</v>
       </c>
@@ -11995,7 +11991,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>8</v>
       </c>
@@ -12039,7 +12035,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8</v>
       </c>
@@ -12083,7 +12079,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>8</v>
       </c>
@@ -12171,7 +12167,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>8</v>
       </c>
@@ -12215,7 +12211,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>8</v>
       </c>
@@ -12306,7 +12302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>8</v>
       </c>
@@ -12350,7 +12346,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>8</v>
       </c>
@@ -12398,7 +12394,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>8</v>
       </c>
@@ -12442,7 +12438,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" ht="176" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>8</v>
       </c>
@@ -12486,7 +12482,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>8</v>
       </c>
@@ -12530,7 +12526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>8</v>
       </c>
@@ -12574,7 +12570,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>8</v>
       </c>
@@ -12711,7 +12707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>7</v>
       </c>
@@ -12755,7 +12751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>7</v>
       </c>
@@ -12799,7 +12795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>7</v>
       </c>
@@ -12843,7 +12839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>7</v>
       </c>
@@ -12891,7 +12887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>7</v>
       </c>
@@ -12935,7 +12931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>7</v>
       </c>
@@ -12979,7 +12975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>7</v>
       </c>
@@ -13075,7 +13071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>7</v>
       </c>
@@ -13121,7 +13117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>7</v>
       </c>
@@ -13170,7 +13166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>7</v>
       </c>
@@ -13218,7 +13214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>7</v>
       </c>
@@ -13266,7 +13262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>7</v>
       </c>
@@ -13310,7 +13306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>7</v>
       </c>
@@ -13357,7 +13353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>7</v>
       </c>
@@ -13405,7 +13401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>7</v>
       </c>
@@ -13547,7 +13543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>7</v>
       </c>
@@ -13595,7 +13591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9</v>
       </c>
@@ -13644,7 +13640,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9</v>
       </c>
@@ -13688,7 +13684,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9</v>
       </c>
@@ -13735,7 +13731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9</v>
       </c>
@@ -13779,7 +13775,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>9</v>
       </c>
@@ -13823,7 +13819,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>9</v>
       </c>
@@ -13870,7 +13866,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9</v>
       </c>
@@ -13914,7 +13910,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
@@ -13962,7 +13958,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>9</v>
       </c>
@@ -14012,7 +14008,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9</v>
       </c>
@@ -14056,7 +14052,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>9</v>
       </c>
@@ -14100,7 +14096,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>9</v>
       </c>
@@ -14145,7 +14141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9</v>
       </c>
@@ -14197,7 +14193,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>9</v>
       </c>
@@ -14241,7 +14237,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>9</v>
       </c>
@@ -14285,7 +14281,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="246" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>9</v>
       </c>
@@ -14332,7 +14328,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>9</v>
       </c>
@@ -14378,7 +14374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9</v>
       </c>
@@ -14422,7 +14418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>9</v>
       </c>
@@ -14466,7 +14462,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>9</v>
       </c>
@@ -14513,7 +14509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>9</v>
       </c>
